--- a/stock_historical_data/1wk/PENIND.NS.xlsx
+++ b/stock_historical_data/1wk/PENIND.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R711"/>
+  <dimension ref="A1:R746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -40109,7 +40109,7 @@
         <v>23</v>
       </c>
       <c r="O708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P708" t="n">
         <v>0</v>
@@ -40229,7 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
-      <c r="R710" t="inlineStr"/>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -40283,7 +40285,1829 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
-      <c r="R711" t="inlineStr"/>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B712" t="n">
+        <v>171.3999938964844</v>
+      </c>
+      <c r="C712" t="n">
+        <v>191.6999969482422</v>
+      </c>
+      <c r="D712" t="n">
+        <v>167.5500030517578</v>
+      </c>
+      <c r="E712" t="n">
+        <v>168.3699951171875</v>
+      </c>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="n">
+        <v>8195347</v>
+      </c>
+      <c r="H712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I712" t="n">
+        <v>7</v>
+      </c>
+      <c r="J712" t="n">
+        <v>1</v>
+      </c>
+      <c r="K712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N712" t="n">
+        <v>27</v>
+      </c>
+      <c r="O712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B713" t="n">
+        <v>171.75</v>
+      </c>
+      <c r="C713" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="D713" t="n">
+        <v>164</v>
+      </c>
+      <c r="E713" t="n">
+        <v>177.6900024414062</v>
+      </c>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="n">
+        <v>4448201</v>
+      </c>
+      <c r="H713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I713" t="n">
+        <v>7</v>
+      </c>
+      <c r="J713" t="n">
+        <v>8</v>
+      </c>
+      <c r="K713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N713" t="n">
+        <v>28</v>
+      </c>
+      <c r="O713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B714" t="n">
+        <v>183</v>
+      </c>
+      <c r="C714" t="n">
+        <v>188.3000030517578</v>
+      </c>
+      <c r="D714" t="n">
+        <v>172</v>
+      </c>
+      <c r="E714" t="n">
+        <v>172.4199981689453</v>
+      </c>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="n">
+        <v>5032621</v>
+      </c>
+      <c r="H714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I714" t="n">
+        <v>7</v>
+      </c>
+      <c r="J714" t="n">
+        <v>15</v>
+      </c>
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N714" t="n">
+        <v>29</v>
+      </c>
+      <c r="O714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>1</v>
+      </c>
+      <c r="R714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B715" t="n">
+        <v>172.3999938964844</v>
+      </c>
+      <c r="C715" t="n">
+        <v>187.1000061035156</v>
+      </c>
+      <c r="D715" t="n">
+        <v>165.3200073242188</v>
+      </c>
+      <c r="E715" t="n">
+        <v>179.7200012207031</v>
+      </c>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="n">
+        <v>3645779</v>
+      </c>
+      <c r="H715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I715" t="n">
+        <v>7</v>
+      </c>
+      <c r="J715" t="n">
+        <v>22</v>
+      </c>
+      <c r="K715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N715" t="n">
+        <v>30</v>
+      </c>
+      <c r="O715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B716" t="n">
+        <v>181</v>
+      </c>
+      <c r="C716" t="n">
+        <v>204.1199951171875</v>
+      </c>
+      <c r="D716" t="n">
+        <v>180.1000061035156</v>
+      </c>
+      <c r="E716" t="n">
+        <v>186.0599975585938</v>
+      </c>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="n">
+        <v>8911508</v>
+      </c>
+      <c r="H716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I716" t="n">
+        <v>7</v>
+      </c>
+      <c r="J716" t="n">
+        <v>29</v>
+      </c>
+      <c r="K716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N716" t="n">
+        <v>31</v>
+      </c>
+      <c r="O716" t="n">
+        <v>1</v>
+      </c>
+      <c r="P716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B717" t="n">
+        <v>177</v>
+      </c>
+      <c r="C717" t="n">
+        <v>182.1999969482422</v>
+      </c>
+      <c r="D717" t="n">
+        <v>170</v>
+      </c>
+      <c r="E717" t="n">
+        <v>179.3000030517578</v>
+      </c>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="n">
+        <v>4175267</v>
+      </c>
+      <c r="H717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I717" t="n">
+        <v>8</v>
+      </c>
+      <c r="J717" t="n">
+        <v>5</v>
+      </c>
+      <c r="K717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N717" t="n">
+        <v>32</v>
+      </c>
+      <c r="O717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B718" t="n">
+        <v>177.9900054931641</v>
+      </c>
+      <c r="C718" t="n">
+        <v>184.8300018310547</v>
+      </c>
+      <c r="D718" t="n">
+        <v>164.3000030517578</v>
+      </c>
+      <c r="E718" t="n">
+        <v>168.7700042724609</v>
+      </c>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="n">
+        <v>4122196</v>
+      </c>
+      <c r="H718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I718" t="n">
+        <v>8</v>
+      </c>
+      <c r="J718" t="n">
+        <v>12</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N718" t="n">
+        <v>33</v>
+      </c>
+      <c r="O718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B719" t="n">
+        <v>169.9700012207031</v>
+      </c>
+      <c r="C719" t="n">
+        <v>201.3300018310547</v>
+      </c>
+      <c r="D719" t="n">
+        <v>169.3000030517578</v>
+      </c>
+      <c r="E719" t="n">
+        <v>191.8500061035156</v>
+      </c>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="n">
+        <v>7211334</v>
+      </c>
+      <c r="H719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I719" t="n">
+        <v>8</v>
+      </c>
+      <c r="J719" t="n">
+        <v>19</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N719" t="n">
+        <v>34</v>
+      </c>
+      <c r="O719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B720" t="n">
+        <v>193</v>
+      </c>
+      <c r="C720" t="n">
+        <v>193.8000030517578</v>
+      </c>
+      <c r="D720" t="n">
+        <v>175.9299926757812</v>
+      </c>
+      <c r="E720" t="n">
+        <v>178</v>
+      </c>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="n">
+        <v>3020197</v>
+      </c>
+      <c r="H720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I720" t="n">
+        <v>8</v>
+      </c>
+      <c r="J720" t="n">
+        <v>26</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N720" t="n">
+        <v>35</v>
+      </c>
+      <c r="O720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B721" t="n">
+        <v>178</v>
+      </c>
+      <c r="C721" t="n">
+        <v>184.2599945068359</v>
+      </c>
+      <c r="D721" t="n">
+        <v>165.25</v>
+      </c>
+      <c r="E721" t="n">
+        <v>169.1900024414062</v>
+      </c>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="n">
+        <v>8200640</v>
+      </c>
+      <c r="H721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I721" t="n">
+        <v>9</v>
+      </c>
+      <c r="J721" t="n">
+        <v>2</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N721" t="n">
+        <v>36</v>
+      </c>
+      <c r="O721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B722" t="n">
+        <v>169</v>
+      </c>
+      <c r="C722" t="n">
+        <v>173.3500061035156</v>
+      </c>
+      <c r="D722" t="n">
+        <v>163.5500030517578</v>
+      </c>
+      <c r="E722" t="n">
+        <v>172.3800048828125</v>
+      </c>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="n">
+        <v>3702159</v>
+      </c>
+      <c r="H722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I722" t="n">
+        <v>9</v>
+      </c>
+      <c r="J722" t="n">
+        <v>9</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" t="n">
+        <v>37</v>
+      </c>
+      <c r="O722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>2</v>
+      </c>
+      <c r="R722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B723" t="n">
+        <v>173.8399963378906</v>
+      </c>
+      <c r="C723" t="n">
+        <v>175.9900054931641</v>
+      </c>
+      <c r="D723" t="n">
+        <v>162.2700042724609</v>
+      </c>
+      <c r="E723" t="n">
+        <v>169.6499938964844</v>
+      </c>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="n">
+        <v>2752432</v>
+      </c>
+      <c r="H723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I723" t="n">
+        <v>9</v>
+      </c>
+      <c r="J723" t="n">
+        <v>16</v>
+      </c>
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" t="n">
+        <v>38</v>
+      </c>
+      <c r="O723" t="n">
+        <v>2</v>
+      </c>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B724" t="n">
+        <v>170.6900024414062</v>
+      </c>
+      <c r="C724" t="n">
+        <v>185</v>
+      </c>
+      <c r="D724" t="n">
+        <v>170.0099945068359</v>
+      </c>
+      <c r="E724" t="n">
+        <v>170.8099975585938</v>
+      </c>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="n">
+        <v>5924663</v>
+      </c>
+      <c r="H724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I724" t="n">
+        <v>9</v>
+      </c>
+      <c r="J724" t="n">
+        <v>23</v>
+      </c>
+      <c r="K724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N724" t="n">
+        <v>39</v>
+      </c>
+      <c r="O724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B725" t="n">
+        <v>171</v>
+      </c>
+      <c r="C725" t="n">
+        <v>194.3899993896484</v>
+      </c>
+      <c r="D725" t="n">
+        <v>168.6100006103516</v>
+      </c>
+      <c r="E725" t="n">
+        <v>182.7899932861328</v>
+      </c>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="n">
+        <v>7467708</v>
+      </c>
+      <c r="H725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I725" t="n">
+        <v>9</v>
+      </c>
+      <c r="J725" t="n">
+        <v>30</v>
+      </c>
+      <c r="K725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N725" t="n">
+        <v>40</v>
+      </c>
+      <c r="O725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B726" t="n">
+        <v>184.1499938964844</v>
+      </c>
+      <c r="C726" t="n">
+        <v>185.6999969482422</v>
+      </c>
+      <c r="D726" t="n">
+        <v>166.6600036621094</v>
+      </c>
+      <c r="E726" t="n">
+        <v>177.8000030517578</v>
+      </c>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="n">
+        <v>3551881</v>
+      </c>
+      <c r="H726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I726" t="n">
+        <v>10</v>
+      </c>
+      <c r="J726" t="n">
+        <v>7</v>
+      </c>
+      <c r="K726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N726" t="n">
+        <v>41</v>
+      </c>
+      <c r="O726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B727" t="n">
+        <v>180</v>
+      </c>
+      <c r="C727" t="n">
+        <v>210.3500061035156</v>
+      </c>
+      <c r="D727" t="n">
+        <v>176.6199951171875</v>
+      </c>
+      <c r="E727" t="n">
+        <v>207.3899993896484</v>
+      </c>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="n">
+        <v>13539669</v>
+      </c>
+      <c r="H727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I727" t="n">
+        <v>10</v>
+      </c>
+      <c r="J727" t="n">
+        <v>14</v>
+      </c>
+      <c r="K727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N727" t="n">
+        <v>42</v>
+      </c>
+      <c r="O727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B728" t="n">
+        <v>209.8000030517578</v>
+      </c>
+      <c r="C728" t="n">
+        <v>215</v>
+      </c>
+      <c r="D728" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="E728" t="n">
+        <v>185.2899932861328</v>
+      </c>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="n">
+        <v>14754368</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I728" t="n">
+        <v>10</v>
+      </c>
+      <c r="J728" t="n">
+        <v>21</v>
+      </c>
+      <c r="K728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N728" t="n">
+        <v>43</v>
+      </c>
+      <c r="O728" t="n">
+        <v>1</v>
+      </c>
+      <c r="P728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B729" t="n">
+        <v>184.9600067138672</v>
+      </c>
+      <c r="C729" t="n">
+        <v>199.1999969482422</v>
+      </c>
+      <c r="D729" t="n">
+        <v>176</v>
+      </c>
+      <c r="E729" t="n">
+        <v>196.6799926757812</v>
+      </c>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="n">
+        <v>4829756</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I729" t="n">
+        <v>10</v>
+      </c>
+      <c r="J729" t="n">
+        <v>28</v>
+      </c>
+      <c r="K729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N729" t="n">
+        <v>44</v>
+      </c>
+      <c r="O729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>1</v>
+      </c>
+      <c r="R729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B730" t="n">
+        <v>195.6699981689453</v>
+      </c>
+      <c r="C730" t="n">
+        <v>210</v>
+      </c>
+      <c r="D730" t="n">
+        <v>191</v>
+      </c>
+      <c r="E730" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="n">
+        <v>6566563</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I730" t="n">
+        <v>11</v>
+      </c>
+      <c r="J730" t="n">
+        <v>4</v>
+      </c>
+      <c r="K730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N730" t="n">
+        <v>45</v>
+      </c>
+      <c r="O730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B731" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="C731" t="n">
+        <v>197</v>
+      </c>
+      <c r="D731" t="n">
+        <v>167.6999969482422</v>
+      </c>
+      <c r="E731" t="n">
+        <v>177.2299957275391</v>
+      </c>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="n">
+        <v>5133229</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I731" t="n">
+        <v>11</v>
+      </c>
+      <c r="J731" t="n">
+        <v>11</v>
+      </c>
+      <c r="K731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N731" t="n">
+        <v>46</v>
+      </c>
+      <c r="O731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B732" t="n">
+        <v>179.9499969482422</v>
+      </c>
+      <c r="C732" t="n">
+        <v>203.8000030517578</v>
+      </c>
+      <c r="D732" t="n">
+        <v>173</v>
+      </c>
+      <c r="E732" t="n">
+        <v>202.1600036621094</v>
+      </c>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="n">
+        <v>5001962</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I732" t="n">
+        <v>11</v>
+      </c>
+      <c r="J732" t="n">
+        <v>18</v>
+      </c>
+      <c r="K732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N732" t="n">
+        <v>47</v>
+      </c>
+      <c r="O732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B733" t="n">
+        <v>203.5899963378906</v>
+      </c>
+      <c r="C733" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="D733" t="n">
+        <v>194.1100006103516</v>
+      </c>
+      <c r="E733" t="n">
+        <v>208.6699981689453</v>
+      </c>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="n">
+        <v>5784324</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I733" t="n">
+        <v>11</v>
+      </c>
+      <c r="J733" t="n">
+        <v>25</v>
+      </c>
+      <c r="K733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733" t="n">
+        <v>48</v>
+      </c>
+      <c r="O733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B734" t="n">
+        <v>209</v>
+      </c>
+      <c r="C734" t="n">
+        <v>227.6999969482422</v>
+      </c>
+      <c r="D734" t="n">
+        <v>208.6699981689453</v>
+      </c>
+      <c r="E734" t="n">
+        <v>220.7899932861328</v>
+      </c>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="n">
+        <v>9378802</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I734" t="n">
+        <v>12</v>
+      </c>
+      <c r="J734" t="n">
+        <v>2</v>
+      </c>
+      <c r="K734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N734" t="n">
+        <v>49</v>
+      </c>
+      <c r="O734" t="n">
+        <v>1</v>
+      </c>
+      <c r="P734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>2</v>
+      </c>
+      <c r="R734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B735" t="n">
+        <v>223</v>
+      </c>
+      <c r="C735" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="D735" t="n">
+        <v>212.1100006103516</v>
+      </c>
+      <c r="E735" t="n">
+        <v>215.6100006103516</v>
+      </c>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="n">
+        <v>5071216</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I735" t="n">
+        <v>12</v>
+      </c>
+      <c r="J735" t="n">
+        <v>9</v>
+      </c>
+      <c r="K735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N735" t="n">
+        <v>50</v>
+      </c>
+      <c r="O735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B736" t="n">
+        <v>215.6100006103516</v>
+      </c>
+      <c r="C736" t="n">
+        <v>217.0599975585938</v>
+      </c>
+      <c r="D736" t="n">
+        <v>190.1499938964844</v>
+      </c>
+      <c r="E736" t="n">
+        <v>191.6900024414062</v>
+      </c>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="n">
+        <v>3735820</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I736" t="n">
+        <v>12</v>
+      </c>
+      <c r="J736" t="n">
+        <v>16</v>
+      </c>
+      <c r="K736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N736" t="n">
+        <v>51</v>
+      </c>
+      <c r="O736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B737" t="n">
+        <v>198.6499938964844</v>
+      </c>
+      <c r="C737" t="n">
+        <v>203.4400024414062</v>
+      </c>
+      <c r="D737" t="n">
+        <v>187.1199951171875</v>
+      </c>
+      <c r="E737" t="n">
+        <v>198.6399993896484</v>
+      </c>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="n">
+        <v>2971649</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I737" t="n">
+        <v>12</v>
+      </c>
+      <c r="J737" t="n">
+        <v>23</v>
+      </c>
+      <c r="K737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N737" t="n">
+        <v>52</v>
+      </c>
+      <c r="O737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B738" t="n">
+        <v>200</v>
+      </c>
+      <c r="C738" t="n">
+        <v>205.1999969482422</v>
+      </c>
+      <c r="D738" t="n">
+        <v>190.1100006103516</v>
+      </c>
+      <c r="E738" t="n">
+        <v>196.6600036621094</v>
+      </c>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="n">
+        <v>2691298</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I738" t="n">
+        <v>12</v>
+      </c>
+      <c r="J738" t="n">
+        <v>30</v>
+      </c>
+      <c r="K738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N738" t="n">
+        <v>1</v>
+      </c>
+      <c r="O738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B739" t="n">
+        <v>196</v>
+      </c>
+      <c r="C739" t="n">
+        <v>197</v>
+      </c>
+      <c r="D739" t="n">
+        <v>175.1999969482422</v>
+      </c>
+      <c r="E739" t="n">
+        <v>176.2899932861328</v>
+      </c>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="n">
+        <v>3106491</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I739" t="n">
+        <v>1</v>
+      </c>
+      <c r="J739" t="n">
+        <v>6</v>
+      </c>
+      <c r="K739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N739" t="n">
+        <v>2</v>
+      </c>
+      <c r="O739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B740" t="n">
+        <v>175.9700012207031</v>
+      </c>
+      <c r="C740" t="n">
+        <v>183</v>
+      </c>
+      <c r="D740" t="n">
+        <v>170.5099945068359</v>
+      </c>
+      <c r="E740" t="n">
+        <v>178.5299987792969</v>
+      </c>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="n">
+        <v>2476185</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I740" t="n">
+        <v>1</v>
+      </c>
+      <c r="J740" t="n">
+        <v>13</v>
+      </c>
+      <c r="K740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N740" t="n">
+        <v>3</v>
+      </c>
+      <c r="O740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>2</v>
+      </c>
+      <c r="R740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B741" t="n">
+        <v>179</v>
+      </c>
+      <c r="C741" t="n">
+        <v>180.8000030517578</v>
+      </c>
+      <c r="D741" t="n">
+        <v>165.6499938964844</v>
+      </c>
+      <c r="E741" t="n">
+        <v>167.4499969482422</v>
+      </c>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="n">
+        <v>1966797</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I741" t="n">
+        <v>1</v>
+      </c>
+      <c r="J741" t="n">
+        <v>20</v>
+      </c>
+      <c r="K741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N741" t="n">
+        <v>4</v>
+      </c>
+      <c r="O741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B742" t="n">
+        <v>164</v>
+      </c>
+      <c r="C742" t="n">
+        <v>166.4900054931641</v>
+      </c>
+      <c r="D742" t="n">
+        <v>150.7599945068359</v>
+      </c>
+      <c r="E742" t="n">
+        <v>164.5899963378906</v>
+      </c>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="n">
+        <v>2722387</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I742" t="n">
+        <v>1</v>
+      </c>
+      <c r="J742" t="n">
+        <v>27</v>
+      </c>
+      <c r="K742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N742" t="n">
+        <v>5</v>
+      </c>
+      <c r="O742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B743" t="n">
+        <v>158.0200042724609</v>
+      </c>
+      <c r="C743" t="n">
+        <v>168.9299926757812</v>
+      </c>
+      <c r="D743" t="n">
+        <v>151.5800018310547</v>
+      </c>
+      <c r="E743" t="n">
+        <v>160.8699951171875</v>
+      </c>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="n">
+        <v>2041586</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I743" t="n">
+        <v>2</v>
+      </c>
+      <c r="J743" t="n">
+        <v>3</v>
+      </c>
+      <c r="K743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N743" t="n">
+        <v>6</v>
+      </c>
+      <c r="O743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B744" t="n">
+        <v>160</v>
+      </c>
+      <c r="C744" t="n">
+        <v>160</v>
+      </c>
+      <c r="D744" t="n">
+        <v>135.6499938964844</v>
+      </c>
+      <c r="E744" t="n">
+        <v>144.0599975585938</v>
+      </c>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="n">
+        <v>3074899</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I744" t="n">
+        <v>2</v>
+      </c>
+      <c r="J744" t="n">
+        <v>10</v>
+      </c>
+      <c r="K744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N744" t="n">
+        <v>7</v>
+      </c>
+      <c r="O744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B745" t="n">
+        <v>142.8000030517578</v>
+      </c>
+      <c r="C745" t="n">
+        <v>174.9900054931641</v>
+      </c>
+      <c r="D745" t="n">
+        <v>141.5700073242188</v>
+      </c>
+      <c r="E745" t="n">
+        <v>173.6499938964844</v>
+      </c>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="n">
+        <v>8845068</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I745" t="n">
+        <v>2</v>
+      </c>
+      <c r="J745" t="n">
+        <v>17</v>
+      </c>
+      <c r="K745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N745" t="n">
+        <v>8</v>
+      </c>
+      <c r="O745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B746" t="n">
+        <v>171</v>
+      </c>
+      <c r="C746" t="n">
+        <v>178.6199951171875</v>
+      </c>
+      <c r="D746" t="n">
+        <v>155.0099945068359</v>
+      </c>
+      <c r="E746" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="n">
+        <v>2411863</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I746" t="n">
+        <v>2</v>
+      </c>
+      <c r="J746" t="n">
+        <v>24</v>
+      </c>
+      <c r="K746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N746" t="n">
+        <v>9</v>
+      </c>
+      <c r="O746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R746" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/PENIND.NS.xlsx
+++ b/stock_historical_data/1wk/PENIND.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R746"/>
+  <dimension ref="A1:R755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -40339,7 +40339,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
-      <c r="R712" t="inlineStr"/>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -40391,7 +40393,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
-      <c r="R713" t="inlineStr"/>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -40443,7 +40447,9 @@
       <c r="Q714" t="n">
         <v>1</v>
       </c>
-      <c r="R714" t="inlineStr"/>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -40495,7 +40501,9 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
-      <c r="R715" t="inlineStr"/>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -40547,7 +40555,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
-      <c r="R716" t="inlineStr"/>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -40599,7 +40609,9 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
-      <c r="R717" t="inlineStr"/>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -40651,7 +40663,9 @@
       <c r="Q718" t="n">
         <v>0</v>
       </c>
-      <c r="R718" t="inlineStr"/>
+      <c r="R718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -40703,7 +40717,9 @@
       <c r="Q719" t="n">
         <v>0</v>
       </c>
-      <c r="R719" t="inlineStr"/>
+      <c r="R719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -40755,7 +40771,9 @@
       <c r="Q720" t="n">
         <v>0</v>
       </c>
-      <c r="R720" t="inlineStr"/>
+      <c r="R720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -40807,7 +40825,9 @@
       <c r="Q721" t="n">
         <v>0</v>
       </c>
-      <c r="R721" t="inlineStr"/>
+      <c r="R721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -40859,7 +40879,9 @@
       <c r="Q722" t="n">
         <v>2</v>
       </c>
-      <c r="R722" t="inlineStr"/>
+      <c r="R722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -40911,7 +40933,9 @@
       <c r="Q723" t="n">
         <v>0</v>
       </c>
-      <c r="R723" t="inlineStr"/>
+      <c r="R723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -40963,7 +40987,9 @@
       <c r="Q724" t="n">
         <v>0</v>
       </c>
-      <c r="R724" t="inlineStr"/>
+      <c r="R724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -41015,7 +41041,9 @@
       <c r="Q725" t="n">
         <v>0</v>
       </c>
-      <c r="R725" t="inlineStr"/>
+      <c r="R725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -41067,7 +41095,9 @@
       <c r="Q726" t="n">
         <v>0</v>
       </c>
-      <c r="R726" t="inlineStr"/>
+      <c r="R726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -41119,7 +41149,9 @@
       <c r="Q727" t="n">
         <v>0</v>
       </c>
-      <c r="R727" t="inlineStr"/>
+      <c r="R727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -41171,7 +41203,9 @@
       <c r="Q728" t="n">
         <v>0</v>
       </c>
-      <c r="R728" t="inlineStr"/>
+      <c r="R728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -41223,7 +41257,9 @@
       <c r="Q729" t="n">
         <v>1</v>
       </c>
-      <c r="R729" t="inlineStr"/>
+      <c r="R729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -41275,7 +41311,9 @@
       <c r="Q730" t="n">
         <v>0</v>
       </c>
-      <c r="R730" t="inlineStr"/>
+      <c r="R730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -41327,7 +41365,9 @@
       <c r="Q731" t="n">
         <v>0</v>
       </c>
-      <c r="R731" t="inlineStr"/>
+      <c r="R731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -41379,7 +41419,9 @@
       <c r="Q732" t="n">
         <v>0</v>
       </c>
-      <c r="R732" t="inlineStr"/>
+      <c r="R732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -41431,7 +41473,9 @@
       <c r="Q733" t="n">
         <v>0</v>
       </c>
-      <c r="R733" t="inlineStr"/>
+      <c r="R733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -41483,7 +41527,9 @@
       <c r="Q734" t="n">
         <v>2</v>
       </c>
-      <c r="R734" t="inlineStr"/>
+      <c r="R734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -41535,7 +41581,9 @@
       <c r="Q735" t="n">
         <v>0</v>
       </c>
-      <c r="R735" t="inlineStr"/>
+      <c r="R735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -41587,7 +41635,9 @@
       <c r="Q736" t="n">
         <v>0</v>
       </c>
-      <c r="R736" t="inlineStr"/>
+      <c r="R736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -41639,7 +41689,9 @@
       <c r="Q737" t="n">
         <v>0</v>
       </c>
-      <c r="R737" t="inlineStr"/>
+      <c r="R737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -41691,7 +41743,9 @@
       <c r="Q738" t="n">
         <v>0</v>
       </c>
-      <c r="R738" t="inlineStr"/>
+      <c r="R738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -41743,7 +41797,9 @@
       <c r="Q739" t="n">
         <v>0</v>
       </c>
-      <c r="R739" t="inlineStr"/>
+      <c r="R739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -41795,7 +41851,9 @@
       <c r="Q740" t="n">
         <v>2</v>
       </c>
-      <c r="R740" t="inlineStr"/>
+      <c r="R740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -41847,7 +41905,9 @@
       <c r="Q741" t="n">
         <v>0</v>
       </c>
-      <c r="R741" t="inlineStr"/>
+      <c r="R741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -41899,7 +41959,9 @@
       <c r="Q742" t="n">
         <v>0</v>
       </c>
-      <c r="R742" t="inlineStr"/>
+      <c r="R742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -41951,7 +42013,9 @@
       <c r="Q743" t="n">
         <v>0</v>
       </c>
-      <c r="R743" t="inlineStr"/>
+      <c r="R743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -41995,7 +42059,7 @@
         <v>7</v>
       </c>
       <c r="O744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P744" t="n">
         <v>0</v>
@@ -42003,7 +42067,9 @@
       <c r="Q744" t="n">
         <v>0</v>
       </c>
-      <c r="R744" t="inlineStr"/>
+      <c r="R744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -42055,7 +42121,9 @@
       <c r="Q745" t="n">
         <v>0</v>
       </c>
-      <c r="R745" t="inlineStr"/>
+      <c r="R745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -42107,7 +42175,477 @@
       <c r="Q746" t="n">
         <v>0</v>
       </c>
-      <c r="R746" t="inlineStr"/>
+      <c r="R746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B747" t="n">
+        <v>159.1000061035156</v>
+      </c>
+      <c r="C747" t="n">
+        <v>177.3500061035156</v>
+      </c>
+      <c r="D747" t="n">
+        <v>149.6999969482422</v>
+      </c>
+      <c r="E747" t="n">
+        <v>174.25</v>
+      </c>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="n">
+        <v>3052626</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I747" t="n">
+        <v>3</v>
+      </c>
+      <c r="J747" t="n">
+        <v>3</v>
+      </c>
+      <c r="K747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N747" t="n">
+        <v>10</v>
+      </c>
+      <c r="O747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B748" t="n">
+        <v>174</v>
+      </c>
+      <c r="C748" t="n">
+        <v>177</v>
+      </c>
+      <c r="D748" t="n">
+        <v>165</v>
+      </c>
+      <c r="E748" t="n">
+        <v>168.4400024414062</v>
+      </c>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="n">
+        <v>1862840</v>
+      </c>
+      <c r="H748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3</v>
+      </c>
+      <c r="J748" t="n">
+        <v>10</v>
+      </c>
+      <c r="K748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N748" t="n">
+        <v>11</v>
+      </c>
+      <c r="O748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B749" t="n">
+        <v>172.4900054931641</v>
+      </c>
+      <c r="C749" t="n">
+        <v>191.7899932861328</v>
+      </c>
+      <c r="D749" t="n">
+        <v>170.9400024414062</v>
+      </c>
+      <c r="E749" t="n">
+        <v>188.4299926757812</v>
+      </c>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="n">
+        <v>3624868</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I749" t="n">
+        <v>3</v>
+      </c>
+      <c r="J749" t="n">
+        <v>17</v>
+      </c>
+      <c r="K749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N749" t="n">
+        <v>12</v>
+      </c>
+      <c r="O749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B750" t="n">
+        <v>189.9900054931641</v>
+      </c>
+      <c r="C750" t="n">
+        <v>194</v>
+      </c>
+      <c r="D750" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E750" t="n">
+        <v>187.8000030517578</v>
+      </c>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="n">
+        <v>3168526</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I750" t="n">
+        <v>3</v>
+      </c>
+      <c r="J750" t="n">
+        <v>24</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N750" t="n">
+        <v>13</v>
+      </c>
+      <c r="O750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>1</v>
+      </c>
+      <c r="R750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B751" t="n">
+        <v>187.8000030517578</v>
+      </c>
+      <c r="C751" t="n">
+        <v>195.7899932861328</v>
+      </c>
+      <c r="D751" t="n">
+        <v>181.6499938964844</v>
+      </c>
+      <c r="E751" t="n">
+        <v>183.3800048828125</v>
+      </c>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="n">
+        <v>2597772</v>
+      </c>
+      <c r="H751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3</v>
+      </c>
+      <c r="J751" t="n">
+        <v>31</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>14</v>
+      </c>
+      <c r="O751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B752" t="n">
+        <v>151.3699951171875</v>
+      </c>
+      <c r="C752" t="n">
+        <v>183.9799957275391</v>
+      </c>
+      <c r="D752" t="n">
+        <v>148.8099975585938</v>
+      </c>
+      <c r="E752" t="n">
+        <v>179.6999969482422</v>
+      </c>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="n">
+        <v>3015012</v>
+      </c>
+      <c r="H752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I752" t="n">
+        <v>4</v>
+      </c>
+      <c r="J752" t="n">
+        <v>7</v>
+      </c>
+      <c r="K752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N752" t="n">
+        <v>15</v>
+      </c>
+      <c r="O752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B753" t="n">
+        <v>184.9799957275391</v>
+      </c>
+      <c r="C753" t="n">
+        <v>191.3200073242188</v>
+      </c>
+      <c r="D753" t="n">
+        <v>182.2100067138672</v>
+      </c>
+      <c r="E753" t="n">
+        <v>185.8800048828125</v>
+      </c>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="n">
+        <v>1234759</v>
+      </c>
+      <c r="H753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I753" t="n">
+        <v>4</v>
+      </c>
+      <c r="J753" t="n">
+        <v>14</v>
+      </c>
+      <c r="K753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N753" t="n">
+        <v>16</v>
+      </c>
+      <c r="O753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B754" t="n">
+        <v>186.8000030517578</v>
+      </c>
+      <c r="C754" t="n">
+        <v>201.9100036621094</v>
+      </c>
+      <c r="D754" t="n">
+        <v>185.9900054931641</v>
+      </c>
+      <c r="E754" t="n">
+        <v>189.3699951171875</v>
+      </c>
+      <c r="F754" t="inlineStr"/>
+      <c r="G754" t="n">
+        <v>3229000</v>
+      </c>
+      <c r="H754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I754" t="n">
+        <v>4</v>
+      </c>
+      <c r="J754" t="n">
+        <v>21</v>
+      </c>
+      <c r="K754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N754" t="n">
+        <v>17</v>
+      </c>
+      <c r="O754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B755" t="n">
+        <v>191</v>
+      </c>
+      <c r="C755" t="n">
+        <v>193.6000061035156</v>
+      </c>
+      <c r="D755" t="n">
+        <v>182.1999969482422</v>
+      </c>
+      <c r="E755" t="n">
+        <v>183.7799987792969</v>
+      </c>
+      <c r="F755" t="inlineStr"/>
+      <c r="G755" t="n">
+        <v>1027511</v>
+      </c>
+      <c r="H755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I755" t="n">
+        <v>4</v>
+      </c>
+      <c r="J755" t="n">
+        <v>28</v>
+      </c>
+      <c r="K755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N755" t="n">
+        <v>18</v>
+      </c>
+      <c r="O755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R755" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
